--- a/PERM_FY2020_Q3_feature_list.xlsx
+++ b/PERM_FY2020_Q3_feature_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sampg\OneDrive\Documents\UChicago\Python for Analytics\PythonForAnalytics-Grp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7911DB9-30D9-4007-8BCA-1B3E6C6FA3A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F56C89-0527-412A-9C9C-7C7994845962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12960" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D0009F-533C-4309-BE66-37F539872C09}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,82 +1808,115 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D133" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D135" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D139" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D140" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D141" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>

--- a/PERM_FY2020_Q3_feature_list.xlsx
+++ b/PERM_FY2020_Q3_feature_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sampg\OneDrive\Documents\UChicago\Python for Analytics\PythonForAnalytics-Grp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Dropbox\UChicago\Python for Analytics\PythonForAnalytics-Grp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F56C89-0527-412A-9C9C-7C7994845962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089869E6-6FAD-4756-AB53-F6BDCF6DA482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12960" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="159">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D0009F-533C-4309-BE66-37F539872C09}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131:D141"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,186 +1637,297 @@
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D94" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D95" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D102" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D103" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D104" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D105" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D106" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D107" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D108" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D110" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D111" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D113" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D114" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D115" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D117" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D118" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D119" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D120" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D121" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D122" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D123" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D124" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D125" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D126" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D127" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
+      <c r="D129" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
+      <c r="D130" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -1910,65 +2021,104 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
+      <c r="D142" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
+      <c r="D143" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D144" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D145" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D146" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D147" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D148" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D149" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D150" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D151" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D152" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D153" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
